--- a/biology/Zoologie/Berger_hollandais/Berger_hollandais.xlsx
+++ b/biology/Zoologie/Berger_hollandais/Berger_hollandais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Berger hollandais est une race de chien de berger néerlandais.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette race, apparue vers la fin du XIXe siècle, est descendante du berger belge, dont il était une variété. Le berger hollandais est polyvalent et bon travailleur, de nombreuses tâches peuvent lui être confiées. Durant le XXe siècle il devient, peu à peu, un animal de compagnie au-delà d’être un excellent gardien. Il faut cependant, noter que cette race reste peu connue en dehors de son pays d’origine. Le premier standard de race est émis le 12 juin 1898, celui qui est actuellement en vigueur date du 28 juillet 2009. Le berger hollandais est une race de chien reconnue par la Fédération cynologique internationale depuis 1955[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race, apparue vers la fin du XIXe siècle, est descendante du berger belge, dont il était une variété. Le berger hollandais est polyvalent et bon travailleur, de nombreuses tâches peuvent lui être confiées. Durant le XXe siècle il devient, peu à peu, un animal de compagnie au-delà d’être un excellent gardien. Il faut cependant, noter que cette race reste peu connue en dehors de son pays d’origine. Le premier standard de race est émis le 12 juin 1898, celui qui est actuellement en vigueur date du 28 juillet 2009. Le berger hollandais est une race de chien reconnue par la Fédération cynologique internationale depuis 1955.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berger hollandais est intelligent et sensible. C'est un excellent chien de compagnie, très dévoué envers ses maîtres, souvent sympathique, amical et attentif envers les enfants. Il possède un fort instinct de protection, et gardera non seulement ses maîtres et son terrain, mais aussi son cercle proche, et tous ceux qu'il a acceptés, ce qui fait de lui un bon chien de garde notamment utilisé par la police et l'armée. Très actif, il est doué en saut et en course. Il est de nature sociable avec les autres chiens et les autres animaux.
 </t>
@@ -574,9 +590,11 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’éducation du berger hollandais doit s’adapter au caractère de la race. C'est un chien assez obéissant, actif et intelligent. Il nécessite une éducation dite juste, c’est-à-dire qu’il ne faut pas être dans l’excès, que ce soit d’un côté ou de l’autre. Il est important de le sociabiliser durant sa jeunesse et ce à travers du jeu. Ainsi il développera des facilités à s’intégrer à un groupe[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’éducation du berger hollandais doit s’adapter au caractère de la race. C'est un chien assez obéissant, actif et intelligent. Il nécessite une éducation dite juste, c’est-à-dire qu’il ne faut pas être dans l’excès, que ce soit d’un côté ou de l’autre. Il est important de le sociabiliser durant sa jeunesse et ce à travers du jeu. Ainsi il développera des facilités à s’intégrer à un groupe.
 </t>
         </is>
       </c>
@@ -607,12 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Santé
-Cette race de chien n’est pas particulièrement fragile, ils sont même plutôt robustes. Il existe tout de même un risque de dysplasie de la hanche qui le concerne, comme d’autres races de taille similaire[2].
-Alimentation
-Étant une race sportive, le berger hollandais nécessite une alimentation qui ne doit pas être excessive. Pour son bien être, il ne doit pas être corpulent[3].
-Lieu de vie
-Le berger hollandais est un chien actif sur le plan physique et il ne manque pas d'énergie. Il est absolument indispensable, pour son bien-être, qu’il puisse se dépenser. Il vaut mieux lui éviter la vie en appartement, il reste cependant possible pour lui de vivre dans ce type d'espace. Dans tous les cas, il nécessite de grandes balades, le maître doit donc être disponible afin que son ami à quatre pattes soit épanoui[3].
+          <t>Santé</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race de chien n’est pas particulièrement fragile, ils sont même plutôt robustes. Il existe tout de même un risque de dysplasie de la hanche qui le concerne, comme d’autres races de taille similaire.
 </t>
         </is>
       </c>
@@ -638,12 +657,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Morphologie</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chien de taille moyenne, bien musclé. L'expression est intelligente et le tempérament vif.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étant une race sportive, le berger hollandais nécessite une alimentation qui ne doit pas être excessive. Pour son bien être, il ne doit pas être corpulent.
 </t>
         </is>
       </c>
@@ -669,10 +694,82 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lieu de vie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le berger hollandais est un chien actif sur le plan physique et il ne manque pas d'énergie. Il est absolument indispensable, pour son bien-être, qu’il puisse se dépenser. Il vaut mieux lui éviter la vie en appartement, il reste cependant possible pour lui de vivre dans ce type d'espace. Dans tous les cas, il nécessite de grandes balades, le maître doit donc être disponible afin que son ami à quatre pattes soit épanoui.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Berger_hollandais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berger_hollandais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chien de taille moyenne, bien musclé. L'expression est intelligente et le tempérament vif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Berger_hollandais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berger_hollandais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en moyenne de douze à quatorze ans
 </t>
